--- a/static/vorlagen/ziegenproblem_vorlage.xlsx
+++ b/static/vorlagen/ziegenproblem_vorlage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentkliem/Documents/Schule/2022/_M/10/Seminararbeit/Simulationen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentkliem/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B1763B-86D7-6F43-9B5E-F69AABBCE1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF02625-93CC-F041-B08D-25F6BA3CAE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{635B650E-2A40-8148-944C-6718D58159F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>1. Wahl</t>
   </si>
@@ -90,13 +90,16 @@
   </si>
   <si>
     <t>Anzahl Spiele:</t>
+  </si>
+  <si>
+    <t>Simulation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,8 +115,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +149,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -188,11 +205,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -204,28 +256,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -545,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D1D4CC-0B7F-D64A-9873-A1CC57ABED5E}">
-  <dimension ref="B1:S13"/>
+  <dimension ref="B1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,77 +632,79 @@
     <col min="16" max="16" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:19" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+    </row>
+    <row r="2" spans="2:19" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="16"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="11"/>
       <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="18"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -649,7 +716,7 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -661,7 +728,7 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -670,19 +737,18 @@
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="13"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="13" t="s">
         <v>11</v>
       </c>
@@ -690,7 +756,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -699,17 +765,16 @@
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="5" t="s">
         <v>14</v>
       </c>
@@ -719,7 +784,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -728,7 +793,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L9" s="6" t="s">
@@ -736,8 +801,7 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="Q9" s="6" t="s">
@@ -748,7 +812,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -757,13 +821,13 @@
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="P10" s="15"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="7" t="s">
         <v>9</v>
       </c>
@@ -772,7 +836,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -784,7 +848,7 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -796,7 +860,7 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -806,20 +870,31 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="P7:Q8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
